--- a/src/test/resources/ImportFile/Trackinventories1.xlsx
+++ b/src/test/resources/ImportFile/Trackinventories1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gowthamraj\git\ZlaataQAseverforme\src\test\resources\ImportFile\"/>
     </mc:Choice>
@@ -64,6 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -424,8 +425,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" customWidth="true" width="13.7109375"/>
+    <col min="6" max="6" customWidth="true" width="18.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -449,37 +450,37 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>7444</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="n" s="0">
+        <v>640.0</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="F2">
-        <v>741</v>
+      <c r="F2" t="n" s="0">
+        <v>648.0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="D3">
-        <v>744</v>
+      <c r="D3" t="n" s="0">
+        <v>660.0</v>
       </c>
     </row>
   </sheetData>
